--- a/Docs/Partidos.xlsx
+++ b/Docs/Partidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Rodrigo\Desktop\Votometro\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardomaio/Vot-metro-A-Volta-a-Portugal-em-Elei-es/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1623F8-29ED-47E4-BFF3-11F3164DB036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8B4D7-F2D3-5848-932A-11972DE76D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8838E7B8-CBE2-46B9-A0E3-9A815B1E9823}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{8838E7B8-CBE2-46B9-A0E3-9A815B1E9823}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>PCTP/MRPP</t>
   </si>
   <si>
-    <t>PPD/PSD.CDS-PP</t>
-  </si>
-  <si>
     <t>PPM</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -172,6 +172,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -403,6 +404,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -410,15 +420,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -438,7 +439,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C4D1F18-7DE5-4C20-A379-8E9B458F2C0F}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C4D1F18-7DE5-4C20-A379-8E9B458F2C0F}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C21" xr:uid="{8C4D1F18-7DE5-4C20-A379-8E9B458F2C0F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
     <sortCondition ref="A1:A21"/>
@@ -453,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -599,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,252 +753,252 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5">
         <v>1.63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>18.07</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
         <v>3.16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
         <v>1.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>3.17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>28.02</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5">
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11">
         <v>0.18</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Docs/Partidos.xlsx
+++ b/Docs/Partidos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardomaio/Vot-metro-A-Volta-a-Portugal-em-Elei-es/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardomaio/Desktop/Votometro-A-Volta-a-Portugal-em-Eleicoes/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8B4D7-F2D3-5848-932A-11972DE76D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432C923-5A2B-B14A-B2D7-170C3B38AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{8838E7B8-CBE2-46B9-A0E3-9A815B1E9823}"/>
   </bookViews>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66F45C-4312-462E-BED8-B9429D627A4D}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
